--- a/state_data_espcl.xlsx
+++ b/state_data_espcl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -25,28 +25,28 @@
     <t>7,0</t>
   </si>
   <si>
-    <t>18,0</t>
+    <t>22,0</t>
   </si>
   <si>
-    <t>41,0</t>
+    <t>47,0</t>
   </si>
   <si>
-    <t>45,0</t>
+    <t>38,0</t>
   </si>
   <si>
-    <t>29,0</t>
+    <t>32,0</t>
   </si>
   <si>
-    <t>10,0</t>
+    <t>11,0</t>
   </si>
   <si>
-    <t>58,0</t>
-  </si>
-  <si>
-    <t>13,0</t>
+    <t>57,0</t>
   </si>
   <si>
     <t>16,0</t>
+  </si>
+  <si>
+    <t>33,0</t>
   </si>
   <si>
     <t>9,0</t>
@@ -55,10 +55,7 @@
     <t>14,0</t>
   </si>
   <si>
-    <t>42,0</t>
-  </si>
-  <si>
-    <t>1,0</t>
+    <t>13,0</t>
   </si>
   <si>
     <t>44,0</t>
@@ -73,10 +70,7 @@
     <t>31,0</t>
   </si>
   <si>
-    <t>28,0</t>
-  </si>
-  <si>
-    <t>32,0</t>
+    <t>34,0</t>
   </si>
   <si>
     <t>67,0</t>
@@ -579,7 +573,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -587,7 +581,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -627,7 +621,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -643,20 +637,20 @@
         <v>3518800</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>3522208</v>
+        <v>3534401</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>3534401</v>
+        <v>3547809</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -664,15 +658,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>3547809</v>
+        <v>3548708</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>3548708</v>
+        <v>3548807</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -680,39 +674,39 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>3548807</v>
+        <v>3552809</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>3552809</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -720,2050 +714,2050 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>9</v>
+        <v>3500105</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>3500105</v>
+        <v>3500204</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>3500204</v>
+        <v>3500303</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>3500303</v>
+        <v>3500402</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>3500402</v>
+        <v>3500501</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>3500501</v>
+        <v>3500550</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>3500550</v>
+        <v>3500600</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>3500600</v>
+        <v>3500709</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>3500709</v>
+        <v>3500758</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>3500758</v>
+        <v>3500808</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>3500808</v>
+        <v>3500907</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>3500907</v>
+        <v>3501004</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>3501004</v>
+        <v>3501103</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>3501103</v>
+        <v>3501152</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>3501152</v>
+        <v>3501202</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>3501202</v>
+        <v>3501301</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>3501301</v>
+        <v>3501400</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>3501400</v>
+        <v>3501509</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>3501509</v>
+        <v>3501608</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>3501608</v>
+        <v>3501707</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>3501707</v>
+        <v>3501806</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>3501806</v>
+        <v>3501905</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>3501905</v>
+        <v>3502002</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>3502002</v>
+        <v>3502101</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>3502101</v>
+        <v>3502200</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>3502200</v>
+        <v>3502309</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>3502309</v>
+        <v>3502408</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>3502408</v>
+        <v>3502507</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>3502507</v>
+        <v>3502606</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>3502606</v>
+        <v>3502705</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>3502705</v>
+        <v>3502754</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>3502754</v>
+        <v>3502804</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>3502804</v>
+        <v>3502903</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>3502903</v>
+        <v>3503000</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>3503000</v>
+        <v>3503109</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>3503109</v>
+        <v>3503158</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>3503158</v>
+        <v>3503208</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>3503208</v>
+        <v>3503307</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>3503307</v>
+        <v>3503356</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>3503356</v>
+        <v>3503406</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>3503406</v>
+        <v>3503505</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>3503505</v>
+        <v>3503604</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>3503604</v>
+        <v>3503703</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>3503703</v>
+        <v>3503802</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>3503802</v>
+        <v>3503901</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>3503901</v>
+        <v>3503950</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>3503950</v>
+        <v>3504008</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>3504008</v>
+        <v>3504107</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>3504107</v>
+        <v>3504206</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>3504206</v>
+        <v>3504305</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>3504305</v>
+        <v>3504404</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>3504404</v>
+        <v>3504503</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>3504503</v>
+        <v>3504602</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>3504602</v>
+        <v>3504701</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>3504701</v>
+        <v>3504800</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>3504800</v>
+        <v>3504909</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>3504909</v>
+        <v>3505005</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>3505005</v>
+        <v>3505104</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>3505104</v>
+        <v>3505203</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>3505203</v>
+        <v>3505302</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>3505302</v>
+        <v>3505351</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>3505351</v>
+        <v>3505401</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>3505401</v>
+        <v>3505500</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>3505500</v>
+        <v>3505609</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>3505609</v>
+        <v>3505708</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>3505708</v>
+        <v>3505807</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>3505807</v>
+        <v>3505906</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>3505906</v>
+        <v>3506003</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>3506003</v>
+        <v>3506102</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>3506102</v>
+        <v>3506201</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>3506201</v>
+        <v>3506300</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>3506300</v>
+        <v>3506359</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>3506359</v>
+        <v>3506409</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>3506409</v>
+        <v>3506508</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>3506508</v>
+        <v>3506607</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>3506607</v>
+        <v>3506706</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>3506706</v>
+        <v>3506805</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>3506805</v>
+        <v>3506904</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>3506904</v>
+        <v>3507001</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>3507001</v>
+        <v>3507100</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>3507100</v>
+        <v>3507159</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>3507159</v>
+        <v>3507209</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>3507209</v>
+        <v>3507308</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>3507308</v>
+        <v>3507407</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>3507407</v>
+        <v>3507456</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>3507456</v>
+        <v>3507506</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>3507506</v>
+        <v>3507605</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>3507605</v>
+        <v>3507704</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>3507704</v>
+        <v>3507753</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>3507753</v>
+        <v>3507803</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>3507803</v>
+        <v>3507902</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>3507902</v>
+        <v>3508009</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>3508009</v>
+        <v>3508108</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>3508108</v>
+        <v>3508207</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>3508207</v>
+        <v>3508306</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>3508306</v>
+        <v>3508405</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>3508405</v>
+        <v>3508504</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>3508504</v>
+        <v>3508603</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>3508603</v>
+        <v>3508702</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>3508702</v>
+        <v>3508801</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>3508801</v>
+        <v>3508900</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>3508900</v>
+        <v>3509007</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>3509007</v>
+        <v>3509106</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>3509106</v>
+        <v>3509205</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>3509205</v>
+        <v>3509254</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>3509254</v>
+        <v>3509304</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>3509304</v>
+        <v>3509403</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>3509403</v>
+        <v>3509452</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>3509452</v>
+        <v>3509502</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>3509502</v>
+        <v>3509601</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>3509601</v>
+        <v>3509700</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>3509700</v>
+        <v>3509809</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>3509809</v>
+        <v>3509908</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>3509908</v>
+        <v>3509957</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>3509957</v>
+        <v>3510005</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>3510005</v>
+        <v>3510104</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>3510104</v>
+        <v>3510153</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>3510153</v>
+        <v>3510203</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>3510203</v>
+        <v>3510302</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>3510302</v>
+        <v>3510401</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>3510401</v>
+        <v>3510500</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>3510500</v>
+        <v>3510609</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>3510609</v>
+        <v>3510708</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>3510708</v>
+        <v>3510807</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>3510807</v>
+        <v>3510906</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>3510906</v>
+        <v>3511003</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>3511003</v>
+        <v>3511102</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>3511102</v>
+        <v>3511201</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>3511201</v>
+        <v>3511300</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>3511300</v>
+        <v>3511409</v>
       </c>
       <c r="B166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>3511409</v>
+        <v>3511508</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>3511508</v>
+        <v>3511607</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>3511607</v>
+        <v>3511706</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>3511706</v>
+        <v>3511904</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>3511904</v>
+        <v>3512001</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>3512001</v>
+        <v>3512100</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>3512100</v>
+        <v>3512209</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>3512209</v>
+        <v>3512308</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>3512308</v>
+        <v>3512407</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>3512407</v>
+        <v>3512506</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>3512506</v>
+        <v>3512605</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>3512605</v>
+        <v>3512704</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>3512704</v>
+        <v>3512803</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>3512803</v>
+        <v>3512902</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>3512902</v>
+        <v>3513009</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>3513009</v>
+        <v>3513108</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>3513108</v>
+        <v>3513207</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>3513207</v>
+        <v>3513306</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>3513306</v>
+        <v>3513405</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>3513405</v>
+        <v>3513504</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>3513504</v>
+        <v>3513603</v>
       </c>
       <c r="B187" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>3513603</v>
+        <v>3513702</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>3513702</v>
+        <v>3513801</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>3513801</v>
+        <v>3513850</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>3513850</v>
+        <v>3513900</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>3513900</v>
+        <v>3514007</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>3514007</v>
+        <v>3514106</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>3514106</v>
+        <v>3514205</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>3514205</v>
+        <v>3514304</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>3514304</v>
+        <v>3514403</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>3514403</v>
+        <v>3514502</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>3514502</v>
+        <v>3514601</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>3514601</v>
+        <v>3514700</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>3514700</v>
+        <v>3514809</v>
       </c>
       <c r="B200" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>3514809</v>
+        <v>3514908</v>
       </c>
       <c r="B201" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>3514908</v>
+        <v>3514924</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>3514924</v>
+        <v>3514957</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>3514957</v>
+        <v>3515004</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>3515004</v>
+        <v>3515103</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>3515103</v>
+        <v>3515129</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>3515129</v>
+        <v>3515152</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>3515152</v>
+        <v>3515186</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>3515186</v>
+        <v>3515194</v>
       </c>
       <c r="B209" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>3515194</v>
+        <v>3515202</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>3515202</v>
+        <v>3515301</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>3515301</v>
+        <v>3515350</v>
       </c>
       <c r="B212" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>3515350</v>
+        <v>3515400</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>3515400</v>
+        <v>3515509</v>
       </c>
       <c r="B214" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>3515509</v>
+        <v>3515608</v>
       </c>
       <c r="B215" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>3515608</v>
+        <v>3515657</v>
       </c>
       <c r="B216" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>3515657</v>
+        <v>3515707</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>3515707</v>
+        <v>3515806</v>
       </c>
       <c r="B218" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>3515806</v>
+        <v>3515905</v>
       </c>
       <c r="B219" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>3515905</v>
+        <v>3516002</v>
       </c>
       <c r="B220" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>3516002</v>
+        <v>3516101</v>
       </c>
       <c r="B221" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>3516101</v>
+        <v>3516200</v>
       </c>
       <c r="B222" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>3516200</v>
+        <v>3516309</v>
       </c>
       <c r="B223" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>3516309</v>
+        <v>3516408</v>
       </c>
       <c r="B224" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>3516408</v>
+        <v>3516507</v>
       </c>
       <c r="B225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>3516507</v>
+        <v>3516606</v>
       </c>
       <c r="B226" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>3516606</v>
+        <v>3516705</v>
       </c>
       <c r="B227" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>3516705</v>
+        <v>3516804</v>
       </c>
       <c r="B228" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>3516804</v>
+        <v>3516853</v>
       </c>
       <c r="B229" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>3516853</v>
+        <v>3516903</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>3516903</v>
+        <v>3517000</v>
       </c>
       <c r="B231" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>3517000</v>
+        <v>3517109</v>
       </c>
       <c r="B232" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>3517109</v>
+        <v>3517208</v>
       </c>
       <c r="B233" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>3517208</v>
+        <v>3517307</v>
       </c>
       <c r="B234" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>3517307</v>
+        <v>3517406</v>
       </c>
       <c r="B235" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>3517406</v>
+        <v>3517505</v>
       </c>
       <c r="B236" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>3517505</v>
+        <v>3517604</v>
       </c>
       <c r="B237" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>3517604</v>
+        <v>3517703</v>
       </c>
       <c r="B238" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>3517703</v>
+        <v>3517802</v>
       </c>
       <c r="B239" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>3517802</v>
+        <v>3517901</v>
       </c>
       <c r="B240" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>3517901</v>
+        <v>3518008</v>
       </c>
       <c r="B241" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>3518008</v>
+        <v>3518107</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>3518107</v>
+        <v>3518206</v>
       </c>
       <c r="B243" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>3518206</v>
+        <v>3518305</v>
       </c>
       <c r="B244" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>3518305</v>
+        <v>3518404</v>
       </c>
       <c r="B245" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>3518404</v>
+        <v>3518503</v>
       </c>
       <c r="B246" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>3518503</v>
+        <v>3518602</v>
       </c>
       <c r="B247" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>3518602</v>
+        <v>3518701</v>
       </c>
       <c r="B248" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>3518701</v>
+        <v>3518859</v>
       </c>
       <c r="B249" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>3518859</v>
+        <v>3518909</v>
       </c>
       <c r="B250" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>3518909</v>
+        <v>3519006</v>
       </c>
       <c r="B251" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>3519006</v>
+        <v>3519055</v>
       </c>
       <c r="B252" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>3519055</v>
+        <v>3519071</v>
       </c>
       <c r="B253" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>3519071</v>
+        <v>3519105</v>
       </c>
       <c r="B254" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>3519105</v>
+        <v>3519204</v>
       </c>
       <c r="B255" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>3519204</v>
+        <v>3519253</v>
       </c>
       <c r="B256" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>3519253</v>
+        <v>3519303</v>
       </c>
       <c r="B257" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>3519303</v>
+        <v>3519402</v>
       </c>
       <c r="B258" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>3519402</v>
+        <v>3519501</v>
       </c>
       <c r="B259" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>3519501</v>
+        <v>3519600</v>
       </c>
       <c r="B260" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>3519600</v>
+        <v>3519709</v>
       </c>
       <c r="B261" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>3519709</v>
+        <v>3519808</v>
       </c>
       <c r="B262" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>3519808</v>
+        <v>3519907</v>
       </c>
       <c r="B263" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>3519907</v>
+        <v>3520004</v>
       </c>
       <c r="B264" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>3520004</v>
+        <v>3520103</v>
       </c>
       <c r="B265" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>3520103</v>
+        <v>3520202</v>
       </c>
       <c r="B266" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>3520202</v>
+        <v>3520301</v>
       </c>
       <c r="B267" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>3520301</v>
+        <v>3520400</v>
       </c>
       <c r="B268" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>3520400</v>
+        <v>3520426</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>3520426</v>
+        <v>3520442</v>
       </c>
       <c r="B270" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>3520442</v>
+        <v>3520509</v>
       </c>
       <c r="B271" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>3520509</v>
+        <v>3520608</v>
       </c>
       <c r="B272" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>3520608</v>
+        <v>3520707</v>
       </c>
       <c r="B273" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>3520707</v>
+        <v>3520806</v>
       </c>
       <c r="B274" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>3520806</v>
+        <v>3520905</v>
       </c>
       <c r="B275" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>3520905</v>
+        <v>3521002</v>
       </c>
       <c r="B276" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>3521002</v>
+        <v>3521101</v>
       </c>
       <c r="B277" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>3521101</v>
+        <v>3521150</v>
       </c>
       <c r="B278" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>3521150</v>
+        <v>3521200</v>
       </c>
       <c r="B279" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>3521200</v>
+        <v>3521309</v>
       </c>
       <c r="B280" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>3521309</v>
+        <v>3521408</v>
       </c>
       <c r="B281" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>3521408</v>
+        <v>3521507</v>
       </c>
       <c r="B282" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>3521507</v>
+        <v>3521606</v>
       </c>
       <c r="B283" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>3521606</v>
+        <v>3521705</v>
       </c>
       <c r="B284" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>3521705</v>
+        <v>3521804</v>
       </c>
       <c r="B285" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>3521804</v>
+        <v>3521903</v>
       </c>
       <c r="B286" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>3521903</v>
+        <v>3522000</v>
       </c>
       <c r="B287" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>3522000</v>
+        <v>3522109</v>
       </c>
       <c r="B288" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>3522109</v>
+        <v>3522158</v>
       </c>
       <c r="B289" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>3522158</v>
+        <v>3522208</v>
       </c>
       <c r="B290" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2771,7 +2765,7 @@
         <v>3522307</v>
       </c>
       <c r="B291" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2779,7 +2773,7 @@
         <v>3522406</v>
       </c>
       <c r="B292" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2787,7 +2781,7 @@
         <v>3522505</v>
       </c>
       <c r="B293" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2795,7 +2789,7 @@
         <v>3522604</v>
       </c>
       <c r="B294" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2803,7 +2797,7 @@
         <v>3522653</v>
       </c>
       <c r="B295" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2811,7 +2805,7 @@
         <v>3522703</v>
       </c>
       <c r="B296" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2819,7 +2813,7 @@
         <v>3522802</v>
       </c>
       <c r="B297" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2827,7 +2821,7 @@
         <v>3522901</v>
       </c>
       <c r="B298" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2835,7 +2829,7 @@
         <v>3523008</v>
       </c>
       <c r="B299" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2843,7 +2837,7 @@
         <v>3523107</v>
       </c>
       <c r="B300" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2851,7 +2845,7 @@
         <v>3523206</v>
       </c>
       <c r="B301" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2859,7 +2853,7 @@
         <v>3523305</v>
       </c>
       <c r="B302" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2867,7 +2861,7 @@
         <v>3523404</v>
       </c>
       <c r="B303" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2875,7 +2869,7 @@
         <v>3523503</v>
       </c>
       <c r="B304" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2883,7 +2877,7 @@
         <v>3523602</v>
       </c>
       <c r="B305" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2891,7 +2885,7 @@
         <v>3523701</v>
       </c>
       <c r="B306" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2899,7 +2893,7 @@
         <v>3523800</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2907,7 +2901,7 @@
         <v>3523909</v>
       </c>
       <c r="B308" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2915,7 +2909,7 @@
         <v>3524006</v>
       </c>
       <c r="B309" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2923,7 +2917,7 @@
         <v>3524105</v>
       </c>
       <c r="B310" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2931,7 +2925,7 @@
         <v>3524204</v>
       </c>
       <c r="B311" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2939,7 +2933,7 @@
         <v>3524303</v>
       </c>
       <c r="B312" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2947,7 +2941,7 @@
         <v>3524402</v>
       </c>
       <c r="B313" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2955,7 +2949,7 @@
         <v>3524501</v>
       </c>
       <c r="B314" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2963,7 +2957,7 @@
         <v>3524600</v>
       </c>
       <c r="B315" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2971,7 +2965,7 @@
         <v>3524709</v>
       </c>
       <c r="B316" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2979,7 +2973,7 @@
         <v>3524808</v>
       </c>
       <c r="B317" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2987,7 +2981,7 @@
         <v>3524907</v>
       </c>
       <c r="B318" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2995,7 +2989,7 @@
         <v>3525003</v>
       </c>
       <c r="B319" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3003,7 +2997,7 @@
         <v>3525102</v>
       </c>
       <c r="B320" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3011,7 +3005,7 @@
         <v>3525201</v>
       </c>
       <c r="B321" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3019,7 +3013,7 @@
         <v>3525300</v>
       </c>
       <c r="B322" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3027,7 +3021,7 @@
         <v>3525409</v>
       </c>
       <c r="B323" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3035,7 +3029,7 @@
         <v>3525508</v>
       </c>
       <c r="B324" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3043,7 +3037,7 @@
         <v>3525607</v>
       </c>
       <c r="B325" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3051,7 +3045,7 @@
         <v>3525706</v>
       </c>
       <c r="B326" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3059,7 +3053,7 @@
         <v>3525805</v>
       </c>
       <c r="B327" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3067,7 +3061,7 @@
         <v>3525854</v>
       </c>
       <c r="B328" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3075,7 +3069,7 @@
         <v>3525904</v>
       </c>
       <c r="B329" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3083,7 +3077,7 @@
         <v>3526001</v>
       </c>
       <c r="B330" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3091,7 +3085,7 @@
         <v>3526100</v>
       </c>
       <c r="B331" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3099,7 +3093,7 @@
         <v>3526209</v>
       </c>
       <c r="B332" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3107,7 +3101,7 @@
         <v>3526308</v>
       </c>
       <c r="B333" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3115,7 +3109,7 @@
         <v>3526407</v>
       </c>
       <c r="B334" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3123,7 +3117,7 @@
         <v>3526506</v>
       </c>
       <c r="B335" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3131,7 +3125,7 @@
         <v>3526605</v>
       </c>
       <c r="B336" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3139,7 +3133,7 @@
         <v>3526704</v>
       </c>
       <c r="B337" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3147,7 +3141,7 @@
         <v>3526803</v>
       </c>
       <c r="B338" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3155,7 +3149,7 @@
         <v>3526902</v>
       </c>
       <c r="B339" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3163,7 +3157,7 @@
         <v>3527009</v>
       </c>
       <c r="B340" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3171,7 +3165,7 @@
         <v>3527108</v>
       </c>
       <c r="B341" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3179,7 +3173,7 @@
         <v>3527207</v>
       </c>
       <c r="B342" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3187,7 +3181,7 @@
         <v>3527256</v>
       </c>
       <c r="B343" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3195,7 +3189,7 @@
         <v>3527306</v>
       </c>
       <c r="B344" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3203,7 +3197,7 @@
         <v>3527405</v>
       </c>
       <c r="B345" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3211,7 +3205,7 @@
         <v>3527504</v>
       </c>
       <c r="B346" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3219,7 +3213,7 @@
         <v>3527603</v>
       </c>
       <c r="B347" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3227,7 +3221,7 @@
         <v>3527702</v>
       </c>
       <c r="B348" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3235,7 +3229,7 @@
         <v>3527801</v>
       </c>
       <c r="B349" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3243,7 +3237,7 @@
         <v>3527900</v>
       </c>
       <c r="B350" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3251,7 +3245,7 @@
         <v>3528007</v>
       </c>
       <c r="B351" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3259,7 +3253,7 @@
         <v>3528106</v>
       </c>
       <c r="B352" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3267,7 +3261,7 @@
         <v>3528205</v>
       </c>
       <c r="B353" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3275,7 +3269,7 @@
         <v>3528304</v>
       </c>
       <c r="B354" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3283,7 +3277,7 @@
         <v>3528403</v>
       </c>
       <c r="B355" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3291,7 +3285,7 @@
         <v>3528502</v>
       </c>
       <c r="B356" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3299,7 +3293,7 @@
         <v>3528601</v>
       </c>
       <c r="B357" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3307,7 +3301,7 @@
         <v>3528700</v>
       </c>
       <c r="B358" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3315,7 +3309,7 @@
         <v>3528809</v>
       </c>
       <c r="B359" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3323,7 +3317,7 @@
         <v>3528858</v>
       </c>
       <c r="B360" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3331,7 +3325,7 @@
         <v>3528908</v>
       </c>
       <c r="B361" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3339,7 +3333,7 @@
         <v>3529005</v>
       </c>
       <c r="B362" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3347,7 +3341,7 @@
         <v>3529104</v>
       </c>
       <c r="B363" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3355,7 +3349,7 @@
         <v>3529203</v>
       </c>
       <c r="B364" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3363,7 +3357,7 @@
         <v>3529302</v>
       </c>
       <c r="B365" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3371,7 +3365,7 @@
         <v>3529401</v>
       </c>
       <c r="B366" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3379,7 +3373,7 @@
         <v>3529500</v>
       </c>
       <c r="B367" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3387,7 +3381,7 @@
         <v>3529609</v>
       </c>
       <c r="B368" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3395,7 +3389,7 @@
         <v>3529658</v>
       </c>
       <c r="B369" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3403,7 +3397,7 @@
         <v>3529708</v>
       </c>
       <c r="B370" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3411,7 +3405,7 @@
         <v>3529807</v>
       </c>
       <c r="B371" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3419,7 +3413,7 @@
         <v>3529906</v>
       </c>
       <c r="B372" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3427,7 +3421,7 @@
         <v>3530003</v>
       </c>
       <c r="B373" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3435,7 +3429,7 @@
         <v>3530102</v>
       </c>
       <c r="B374" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3443,7 +3437,7 @@
         <v>3530201</v>
       </c>
       <c r="B375" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3451,7 +3445,7 @@
         <v>3530300</v>
       </c>
       <c r="B376" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3459,7 +3453,7 @@
         <v>3530409</v>
       </c>
       <c r="B377" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3467,7 +3461,7 @@
         <v>3530508</v>
       </c>
       <c r="B378" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3475,7 +3469,7 @@
         <v>3530607</v>
       </c>
       <c r="B379" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3483,7 +3477,7 @@
         <v>3530706</v>
       </c>
       <c r="B380" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3491,7 +3485,7 @@
         <v>3530805</v>
       </c>
       <c r="B381" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3499,7 +3493,7 @@
         <v>3530904</v>
       </c>
       <c r="B382" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3507,7 +3501,7 @@
         <v>3531001</v>
       </c>
       <c r="B383" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3515,7 +3509,7 @@
         <v>3531100</v>
       </c>
       <c r="B384" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3523,7 +3517,7 @@
         <v>3531209</v>
       </c>
       <c r="B385" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3531,7 +3525,7 @@
         <v>3531308</v>
       </c>
       <c r="B386" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3539,7 +3533,7 @@
         <v>3531407</v>
       </c>
       <c r="B387" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3547,7 +3541,7 @@
         <v>3531506</v>
       </c>
       <c r="B388" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3555,7 +3549,7 @@
         <v>3531605</v>
       </c>
       <c r="B389" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3563,7 +3557,7 @@
         <v>3531704</v>
       </c>
       <c r="B390" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3571,7 +3565,7 @@
         <v>3531803</v>
       </c>
       <c r="B391" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3579,7 +3573,7 @@
         <v>3531902</v>
       </c>
       <c r="B392" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3587,7 +3581,7 @@
         <v>3532009</v>
       </c>
       <c r="B393" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3595,7 +3589,7 @@
         <v>3532058</v>
       </c>
       <c r="B394" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3603,7 +3597,7 @@
         <v>3532108</v>
       </c>
       <c r="B395" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3611,7 +3605,7 @@
         <v>3532157</v>
       </c>
       <c r="B396" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3619,7 +3613,7 @@
         <v>3532207</v>
       </c>
       <c r="B397" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3627,7 +3621,7 @@
         <v>3532306</v>
       </c>
       <c r="B398" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3635,7 +3629,7 @@
         <v>3532405</v>
       </c>
       <c r="B399" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3643,7 +3637,7 @@
         <v>3532504</v>
       </c>
       <c r="B400" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3651,7 +3645,7 @@
         <v>3532603</v>
       </c>
       <c r="B401" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3659,7 +3653,7 @@
         <v>3532702</v>
       </c>
       <c r="B402" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3667,7 +3661,7 @@
         <v>3532801</v>
       </c>
       <c r="B403" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3675,7 +3669,7 @@
         <v>3532827</v>
       </c>
       <c r="B404" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3683,7 +3677,7 @@
         <v>3532843</v>
       </c>
       <c r="B405" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3691,7 +3685,7 @@
         <v>3532868</v>
       </c>
       <c r="B406" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3699,7 +3693,7 @@
         <v>3532900</v>
       </c>
       <c r="B407" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3707,7 +3701,7 @@
         <v>3533007</v>
       </c>
       <c r="B408" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3715,7 +3709,7 @@
         <v>3533106</v>
       </c>
       <c r="B409" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3723,7 +3717,7 @@
         <v>3533205</v>
       </c>
       <c r="B410" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3731,7 +3725,7 @@
         <v>3533254</v>
       </c>
       <c r="B411" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3739,7 +3733,7 @@
         <v>3533304</v>
       </c>
       <c r="B412" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3747,7 +3741,7 @@
         <v>3533403</v>
       </c>
       <c r="B413" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3755,7 +3749,7 @@
         <v>3533502</v>
       </c>
       <c r="B414" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3763,7 +3757,7 @@
         <v>3533601</v>
       </c>
       <c r="B415" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3771,7 +3765,7 @@
         <v>3533700</v>
       </c>
       <c r="B416" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3779,7 +3773,7 @@
         <v>3533809</v>
       </c>
       <c r="B417" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3787,7 +3781,7 @@
         <v>3533908</v>
       </c>
       <c r="B418" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3795,7 +3789,7 @@
         <v>3534005</v>
       </c>
       <c r="B419" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3803,7 +3797,7 @@
         <v>3534104</v>
       </c>
       <c r="B420" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3811,7 +3805,7 @@
         <v>3534203</v>
       </c>
       <c r="B421" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3819,7 +3813,7 @@
         <v>3534302</v>
       </c>
       <c r="B422" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3827,7 +3821,7 @@
         <v>3534500</v>
       </c>
       <c r="B423" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3835,7 +3829,7 @@
         <v>3534609</v>
       </c>
       <c r="B424" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3843,7 +3837,7 @@
         <v>3534708</v>
       </c>
       <c r="B425" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3851,7 +3845,7 @@
         <v>3534757</v>
       </c>
       <c r="B426" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3859,7 +3853,7 @@
         <v>3534807</v>
       </c>
       <c r="B427" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3867,7 +3861,7 @@
         <v>3534906</v>
       </c>
       <c r="B428" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3875,7 +3869,7 @@
         <v>3535002</v>
       </c>
       <c r="B429" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3883,7 +3877,7 @@
         <v>3535101</v>
       </c>
       <c r="B430" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3891,7 +3885,7 @@
         <v>3535200</v>
       </c>
       <c r="B431" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3899,7 +3893,7 @@
         <v>3535309</v>
       </c>
       <c r="B432" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3907,7 +3901,7 @@
         <v>3535408</v>
       </c>
       <c r="B433" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3915,7 +3909,7 @@
         <v>3535507</v>
       </c>
       <c r="B434" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3923,7 +3917,7 @@
         <v>3535606</v>
       </c>
       <c r="B435" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3931,7 +3925,7 @@
         <v>3535705</v>
       </c>
       <c r="B436" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3939,7 +3933,7 @@
         <v>3535804</v>
       </c>
       <c r="B437" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3947,7 +3941,7 @@
         <v>3535903</v>
       </c>
       <c r="B438" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3955,7 +3949,7 @@
         <v>3536000</v>
       </c>
       <c r="B439" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3963,7 +3957,7 @@
         <v>3536109</v>
       </c>
       <c r="B440" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3971,7 +3965,7 @@
         <v>3536208</v>
       </c>
       <c r="B441" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3979,7 +3973,7 @@
         <v>3536257</v>
       </c>
       <c r="B442" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3987,7 +3981,7 @@
         <v>3536307</v>
       </c>
       <c r="B443" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3995,7 +3989,7 @@
         <v>3536406</v>
       </c>
       <c r="B444" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4003,7 +3997,7 @@
         <v>3536505</v>
       </c>
       <c r="B445" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -4011,7 +4005,7 @@
         <v>3536570</v>
       </c>
       <c r="B446" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -4019,7 +4013,7 @@
         <v>3536604</v>
       </c>
       <c r="B447" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4027,7 +4021,7 @@
         <v>3536703</v>
       </c>
       <c r="B448" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4035,7 +4029,7 @@
         <v>3536802</v>
       </c>
       <c r="B449" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4043,7 +4037,7 @@
         <v>3536901</v>
       </c>
       <c r="B450" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4051,7 +4045,7 @@
         <v>3537008</v>
       </c>
       <c r="B451" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4059,7 +4053,7 @@
         <v>3537107</v>
       </c>
       <c r="B452" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4067,7 +4061,7 @@
         <v>3537156</v>
       </c>
       <c r="B453" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4075,7 +4069,7 @@
         <v>3537206</v>
       </c>
       <c r="B454" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4083,7 +4077,7 @@
         <v>3537305</v>
       </c>
       <c r="B455" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4091,7 +4085,7 @@
         <v>3537404</v>
       </c>
       <c r="B456" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4099,7 +4093,7 @@
         <v>3537503</v>
       </c>
       <c r="B457" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4107,7 +4101,7 @@
         <v>3537602</v>
       </c>
       <c r="B458" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4115,7 +4109,7 @@
         <v>3537701</v>
       </c>
       <c r="B459" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4123,7 +4117,7 @@
         <v>3537800</v>
       </c>
       <c r="B460" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4131,7 +4125,7 @@
         <v>3537909</v>
       </c>
       <c r="B461" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4139,7 +4133,7 @@
         <v>3538006</v>
       </c>
       <c r="B462" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4147,7 +4141,7 @@
         <v>3538105</v>
       </c>
       <c r="B463" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4155,7 +4149,7 @@
         <v>3538204</v>
       </c>
       <c r="B464" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4163,7 +4157,7 @@
         <v>3538303</v>
       </c>
       <c r="B465" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4171,7 +4165,7 @@
         <v>3538501</v>
       </c>
       <c r="B466" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4179,7 +4173,7 @@
         <v>3538600</v>
       </c>
       <c r="B467" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4187,7 +4181,7 @@
         <v>3538709</v>
       </c>
       <c r="B468" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4195,7 +4189,7 @@
         <v>3538808</v>
       </c>
       <c r="B469" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4203,7 +4197,7 @@
         <v>3538907</v>
       </c>
       <c r="B470" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4211,7 +4205,7 @@
         <v>3539004</v>
       </c>
       <c r="B471" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4219,7 +4213,7 @@
         <v>3539103</v>
       </c>
       <c r="B472" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4227,7 +4221,7 @@
         <v>3539202</v>
       </c>
       <c r="B473" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4235,7 +4229,7 @@
         <v>3539301</v>
       </c>
       <c r="B474" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4243,7 +4237,7 @@
         <v>3539400</v>
       </c>
       <c r="B475" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4251,7 +4245,7 @@
         <v>3539509</v>
       </c>
       <c r="B476" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4259,7 +4253,7 @@
         <v>3539608</v>
       </c>
       <c r="B477" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4267,7 +4261,7 @@
         <v>3539707</v>
       </c>
       <c r="B478" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4275,7 +4269,7 @@
         <v>3539806</v>
       </c>
       <c r="B479" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4283,7 +4277,7 @@
         <v>3539905</v>
       </c>
       <c r="B480" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4291,7 +4285,7 @@
         <v>3540002</v>
       </c>
       <c r="B481" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4299,7 +4293,7 @@
         <v>3540101</v>
       </c>
       <c r="B482" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4307,7 +4301,7 @@
         <v>3540200</v>
       </c>
       <c r="B483" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4315,7 +4309,7 @@
         <v>3540259</v>
       </c>
       <c r="B484" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4323,7 +4317,7 @@
         <v>3540309</v>
       </c>
       <c r="B485" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4331,7 +4325,7 @@
         <v>3540408</v>
       </c>
       <c r="B486" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4339,7 +4333,7 @@
         <v>3540507</v>
       </c>
       <c r="B487" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4347,7 +4341,7 @@
         <v>3540606</v>
       </c>
       <c r="B488" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4355,7 +4349,7 @@
         <v>3540705</v>
       </c>
       <c r="B489" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4363,7 +4357,7 @@
         <v>3540754</v>
       </c>
       <c r="B490" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4371,7 +4365,7 @@
         <v>3540804</v>
       </c>
       <c r="B491" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4379,7 +4373,7 @@
         <v>3540853</v>
       </c>
       <c r="B492" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4387,7 +4381,7 @@
         <v>3540903</v>
       </c>
       <c r="B493" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4395,7 +4389,7 @@
         <v>3541000</v>
       </c>
       <c r="B494" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4403,7 +4397,7 @@
         <v>3541059</v>
       </c>
       <c r="B495" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4411,7 +4405,7 @@
         <v>3541109</v>
       </c>
       <c r="B496" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4419,7 +4413,7 @@
         <v>3541208</v>
       </c>
       <c r="B497" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4427,7 +4421,7 @@
         <v>3541307</v>
       </c>
       <c r="B498" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4435,7 +4429,7 @@
         <v>3541406</v>
       </c>
       <c r="B499" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4443,7 +4437,7 @@
         <v>3541505</v>
       </c>
       <c r="B500" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4451,7 +4445,7 @@
         <v>3541604</v>
       </c>
       <c r="B501" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4459,7 +4453,7 @@
         <v>3541653</v>
       </c>
       <c r="B502" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4467,7 +4461,7 @@
         <v>3541703</v>
       </c>
       <c r="B503" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4475,7 +4469,7 @@
         <v>3541802</v>
       </c>
       <c r="B504" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4483,7 +4477,7 @@
         <v>3541901</v>
       </c>
       <c r="B505" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4491,7 +4485,7 @@
         <v>3542008</v>
       </c>
       <c r="B506" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4499,7 +4493,7 @@
         <v>3542107</v>
       </c>
       <c r="B507" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4507,7 +4501,7 @@
         <v>3542206</v>
       </c>
       <c r="B508" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4515,7 +4509,7 @@
         <v>3542305</v>
       </c>
       <c r="B509" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4523,7 +4517,7 @@
         <v>3542404</v>
       </c>
       <c r="B510" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4531,7 +4525,7 @@
         <v>3542503</v>
       </c>
       <c r="B511" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4539,7 +4533,7 @@
         <v>3542602</v>
       </c>
       <c r="B512" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4547,7 +4541,7 @@
         <v>3542701</v>
       </c>
       <c r="B513" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4555,7 +4549,7 @@
         <v>3542800</v>
       </c>
       <c r="B514" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4563,7 +4557,7 @@
         <v>3542909</v>
       </c>
       <c r="B515" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4571,7 +4565,7 @@
         <v>3543006</v>
       </c>
       <c r="B516" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4579,7 +4573,7 @@
         <v>3543105</v>
       </c>
       <c r="B517" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4587,7 +4581,7 @@
         <v>3543204</v>
       </c>
       <c r="B518" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4595,7 +4589,7 @@
         <v>3543238</v>
       </c>
       <c r="B519" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4603,7 +4597,7 @@
         <v>3543253</v>
       </c>
       <c r="B520" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4611,7 +4605,7 @@
         <v>3543303</v>
       </c>
       <c r="B521" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4619,7 +4613,7 @@
         <v>3543402</v>
       </c>
       <c r="B522" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4627,7 +4621,7 @@
         <v>3543501</v>
       </c>
       <c r="B523" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4635,7 +4629,7 @@
         <v>3543600</v>
       </c>
       <c r="B524" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4643,7 +4637,7 @@
         <v>3543709</v>
       </c>
       <c r="B525" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4651,7 +4645,7 @@
         <v>3543808</v>
       </c>
       <c r="B526" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4659,7 +4653,7 @@
         <v>3543907</v>
       </c>
       <c r="B527" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4667,7 +4661,7 @@
         <v>3544004</v>
       </c>
       <c r="B528" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4675,7 +4669,7 @@
         <v>3544103</v>
       </c>
       <c r="B529" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4683,7 +4677,7 @@
         <v>3544202</v>
       </c>
       <c r="B530" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4691,7 +4685,7 @@
         <v>3544251</v>
       </c>
       <c r="B531" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4699,7 +4693,7 @@
         <v>3544301</v>
       </c>
       <c r="B532" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4707,7 +4701,7 @@
         <v>3544400</v>
       </c>
       <c r="B533" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4715,7 +4709,7 @@
         <v>3544509</v>
       </c>
       <c r="B534" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4723,7 +4717,7 @@
         <v>3544608</v>
       </c>
       <c r="B535" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4731,7 +4725,7 @@
         <v>3544707</v>
       </c>
       <c r="B536" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4739,7 +4733,7 @@
         <v>3544806</v>
       </c>
       <c r="B537" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4747,7 +4741,7 @@
         <v>3544905</v>
       </c>
       <c r="B538" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4755,7 +4749,7 @@
         <v>3545001</v>
       </c>
       <c r="B539" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4763,7 +4757,7 @@
         <v>3545100</v>
       </c>
       <c r="B540" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4771,7 +4765,7 @@
         <v>3545159</v>
       </c>
       <c r="B541" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4779,7 +4773,7 @@
         <v>3545209</v>
       </c>
       <c r="B542" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4787,7 +4781,7 @@
         <v>3545308</v>
       </c>
       <c r="B543" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4795,7 +4789,7 @@
         <v>3545407</v>
       </c>
       <c r="B544" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4803,7 +4797,7 @@
         <v>3545506</v>
       </c>
       <c r="B545" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4811,7 +4805,7 @@
         <v>3545605</v>
       </c>
       <c r="B546" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4819,7 +4813,7 @@
         <v>3545704</v>
       </c>
       <c r="B547" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4827,7 +4821,7 @@
         <v>3545803</v>
       </c>
       <c r="B548" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4835,7 +4829,7 @@
         <v>3546009</v>
       </c>
       <c r="B549" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4843,7 +4837,7 @@
         <v>3546108</v>
       </c>
       <c r="B550" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4851,7 +4845,7 @@
         <v>3546207</v>
       </c>
       <c r="B551" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4859,7 +4853,7 @@
         <v>3546256</v>
       </c>
       <c r="B552" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4867,7 +4861,7 @@
         <v>3546306</v>
       </c>
       <c r="B553" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4875,7 +4869,7 @@
         <v>3546405</v>
       </c>
       <c r="B554" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4883,7 +4877,7 @@
         <v>3546504</v>
       </c>
       <c r="B555" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4891,7 +4885,7 @@
         <v>3546603</v>
       </c>
       <c r="B556" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4899,7 +4893,7 @@
         <v>3546702</v>
       </c>
       <c r="B557" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4907,7 +4901,7 @@
         <v>3546801</v>
       </c>
       <c r="B558" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4915,7 +4909,7 @@
         <v>3546900</v>
       </c>
       <c r="B559" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4923,7 +4917,7 @@
         <v>3547007</v>
       </c>
       <c r="B560" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4931,7 +4925,7 @@
         <v>3547106</v>
       </c>
       <c r="B561" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4939,7 +4933,7 @@
         <v>3547205</v>
       </c>
       <c r="B562" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4947,7 +4941,7 @@
         <v>3547304</v>
       </c>
       <c r="B563" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4955,7 +4949,7 @@
         <v>3547403</v>
       </c>
       <c r="B564" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4963,7 +4957,7 @@
         <v>3547502</v>
       </c>
       <c r="B565" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4971,7 +4965,7 @@
         <v>3547601</v>
       </c>
       <c r="B566" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4979,7 +4973,7 @@
         <v>3547650</v>
       </c>
       <c r="B567" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4987,7 +4981,7 @@
         <v>3547700</v>
       </c>
       <c r="B568" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4995,7 +4989,7 @@
         <v>3547908</v>
       </c>
       <c r="B569" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -5003,7 +4997,7 @@
         <v>3548005</v>
       </c>
       <c r="B570" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -5011,7 +5005,7 @@
         <v>3548054</v>
       </c>
       <c r="B571" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -5019,7 +5013,7 @@
         <v>3548104</v>
       </c>
       <c r="B572" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -5027,7 +5021,7 @@
         <v>3548203</v>
       </c>
       <c r="B573" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5035,7 +5029,7 @@
         <v>3548302</v>
       </c>
       <c r="B574" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -5043,7 +5037,7 @@
         <v>3548401</v>
       </c>
       <c r="B575" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -5051,7 +5045,7 @@
         <v>3548500</v>
       </c>
       <c r="B576" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5059,7 +5053,7 @@
         <v>3548609</v>
       </c>
       <c r="B577" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5067,7 +5061,7 @@
         <v>3548906</v>
       </c>
       <c r="B578" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5075,7 +5069,7 @@
         <v>3549003</v>
       </c>
       <c r="B579" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5083,7 +5077,7 @@
         <v>3549102</v>
       </c>
       <c r="B580" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5091,7 +5085,7 @@
         <v>3549201</v>
       </c>
       <c r="B581" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5099,7 +5093,7 @@
         <v>3549250</v>
       </c>
       <c r="B582" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5107,7 +5101,7 @@
         <v>3549300</v>
       </c>
       <c r="B583" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5115,7 +5109,7 @@
         <v>3549409</v>
       </c>
       <c r="B584" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5123,7 +5117,7 @@
         <v>3549508</v>
       </c>
       <c r="B585" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5131,7 +5125,7 @@
         <v>3549607</v>
       </c>
       <c r="B586" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5139,7 +5133,7 @@
         <v>3549706</v>
       </c>
       <c r="B587" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5147,7 +5141,7 @@
         <v>3549805</v>
       </c>
       <c r="B588" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5155,7 +5149,7 @@
         <v>3549904</v>
       </c>
       <c r="B589" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5163,7 +5157,7 @@
         <v>3549953</v>
       </c>
       <c r="B590" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5171,7 +5165,7 @@
         <v>3550001</v>
       </c>
       <c r="B591" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5179,7 +5173,7 @@
         <v>3550100</v>
       </c>
       <c r="B592" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5187,7 +5181,7 @@
         <v>3550209</v>
       </c>
       <c r="B593" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5195,7 +5189,7 @@
         <v>3550407</v>
       </c>
       <c r="B594" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5203,7 +5197,7 @@
         <v>3550506</v>
       </c>
       <c r="B595" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5211,7 +5205,7 @@
         <v>3550605</v>
       </c>
       <c r="B596" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5219,7 +5213,7 @@
         <v>3550704</v>
       </c>
       <c r="B597" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5227,7 +5221,7 @@
         <v>3550803</v>
       </c>
       <c r="B598" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5235,7 +5229,7 @@
         <v>3550902</v>
       </c>
       <c r="B599" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5243,7 +5237,7 @@
         <v>3551009</v>
       </c>
       <c r="B600" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5251,7 +5245,7 @@
         <v>3551108</v>
       </c>
       <c r="B601" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5259,7 +5253,7 @@
         <v>3551207</v>
       </c>
       <c r="B602" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5267,7 +5261,7 @@
         <v>3551306</v>
       </c>
       <c r="B603" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5275,7 +5269,7 @@
         <v>3551405</v>
       </c>
       <c r="B604" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5283,7 +5277,7 @@
         <v>3551504</v>
       </c>
       <c r="B605" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5291,7 +5285,7 @@
         <v>3551603</v>
       </c>
       <c r="B606" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5299,7 +5293,7 @@
         <v>3551702</v>
       </c>
       <c r="B607" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5307,7 +5301,7 @@
         <v>3551801</v>
       </c>
       <c r="B608" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5315,7 +5309,7 @@
         <v>3551900</v>
       </c>
       <c r="B609" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5323,7 +5317,7 @@
         <v>3552007</v>
       </c>
       <c r="B610" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5331,7 +5325,7 @@
         <v>3552106</v>
       </c>
       <c r="B611" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5339,7 +5333,7 @@
         <v>3552205</v>
       </c>
       <c r="B612" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5347,7 +5341,7 @@
         <v>3552304</v>
       </c>
       <c r="B613" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5355,7 +5349,7 @@
         <v>3552403</v>
       </c>
       <c r="B614" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5363,7 +5357,7 @@
         <v>3552502</v>
       </c>
       <c r="B615" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5371,7 +5365,7 @@
         <v>3552551</v>
       </c>
       <c r="B616" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5379,7 +5373,7 @@
         <v>3552601</v>
       </c>
       <c r="B617" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5387,7 +5381,7 @@
         <v>3552700</v>
       </c>
       <c r="B618" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5395,7 +5389,7 @@
         <v>3552908</v>
       </c>
       <c r="B619" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5403,7 +5397,7 @@
         <v>3553005</v>
       </c>
       <c r="B620" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5411,7 +5405,7 @@
         <v>3553104</v>
       </c>
       <c r="B621" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5419,7 +5413,7 @@
         <v>3553203</v>
       </c>
       <c r="B622" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5427,7 +5421,7 @@
         <v>3553302</v>
       </c>
       <c r="B623" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5435,7 +5429,7 @@
         <v>3553401</v>
       </c>
       <c r="B624" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5443,7 +5437,7 @@
         <v>3553500</v>
       </c>
       <c r="B625" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5451,7 +5445,7 @@
         <v>3553609</v>
       </c>
       <c r="B626" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5459,7 +5453,7 @@
         <v>3553658</v>
       </c>
       <c r="B627" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5467,7 +5461,7 @@
         <v>3553708</v>
       </c>
       <c r="B628" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5475,7 +5469,7 @@
         <v>3553807</v>
       </c>
       <c r="B629" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5483,7 +5477,7 @@
         <v>3553856</v>
       </c>
       <c r="B630" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5491,7 +5485,7 @@
         <v>3553906</v>
       </c>
       <c r="B631" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5499,7 +5493,7 @@
         <v>3553955</v>
       </c>
       <c r="B632" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5507,7 +5501,7 @@
         <v>3554003</v>
       </c>
       <c r="B633" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5515,7 +5509,7 @@
         <v>3554102</v>
       </c>
       <c r="B634" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5523,7 +5517,7 @@
         <v>3554201</v>
       </c>
       <c r="B635" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5531,7 +5525,7 @@
         <v>3554300</v>
       </c>
       <c r="B636" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5539,7 +5533,7 @@
         <v>3554409</v>
       </c>
       <c r="B637" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5547,7 +5541,7 @@
         <v>3554508</v>
       </c>
       <c r="B638" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5555,7 +5549,7 @@
         <v>3554607</v>
       </c>
       <c r="B639" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5563,7 +5557,7 @@
         <v>3554656</v>
       </c>
       <c r="B640" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5571,7 +5565,7 @@
         <v>3554706</v>
       </c>
       <c r="B641" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5579,7 +5573,7 @@
         <v>3554755</v>
       </c>
       <c r="B642" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5587,7 +5581,7 @@
         <v>3554805</v>
       </c>
       <c r="B643" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5595,7 +5589,7 @@
         <v>3554904</v>
       </c>
       <c r="B644" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5603,7 +5597,7 @@
         <v>3554953</v>
       </c>
       <c r="B645" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5611,7 +5605,7 @@
         <v>3555000</v>
       </c>
       <c r="B646" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5619,7 +5613,7 @@
         <v>3555109</v>
       </c>
       <c r="B647" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5627,7 +5621,7 @@
         <v>3555208</v>
       </c>
       <c r="B648" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5635,7 +5629,7 @@
         <v>3555307</v>
       </c>
       <c r="B649" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5643,7 +5637,7 @@
         <v>3555356</v>
       </c>
       <c r="B650" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5651,7 +5645,7 @@
         <v>3555406</v>
       </c>
       <c r="B651" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5659,7 +5653,7 @@
         <v>3555505</v>
       </c>
       <c r="B652" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5667,7 +5661,7 @@
         <v>3555604</v>
       </c>
       <c r="B653" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5675,7 +5669,7 @@
         <v>3555703</v>
       </c>
       <c r="B654" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5683,7 +5677,7 @@
         <v>3555802</v>
       </c>
       <c r="B655" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5691,7 +5685,7 @@
         <v>3555901</v>
       </c>
       <c r="B656" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5699,7 +5693,7 @@
         <v>3556008</v>
       </c>
       <c r="B657" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5707,7 +5701,7 @@
         <v>3556107</v>
       </c>
       <c r="B658" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5715,7 +5709,7 @@
         <v>3556206</v>
       </c>
       <c r="B659" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5723,7 +5717,7 @@
         <v>3556305</v>
       </c>
       <c r="B660" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5731,7 +5725,7 @@
         <v>3556354</v>
       </c>
       <c r="B661" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5739,7 +5733,7 @@
         <v>3556404</v>
       </c>
       <c r="B662" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5747,7 +5741,7 @@
         <v>3556453</v>
       </c>
       <c r="B663" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5755,7 +5749,7 @@
         <v>3556503</v>
       </c>
       <c r="B664" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5763,7 +5757,7 @@
         <v>3556602</v>
       </c>
       <c r="B665" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5771,7 +5765,7 @@
         <v>3556701</v>
       </c>
       <c r="B666" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5779,7 +5773,7 @@
         <v>3556800</v>
       </c>
       <c r="B667" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5787,7 +5781,7 @@
         <v>3556909</v>
       </c>
       <c r="B668" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5795,7 +5789,7 @@
         <v>3556958</v>
       </c>
       <c r="B669" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5803,7 +5797,7 @@
         <v>3557006</v>
       </c>
       <c r="B670" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5811,7 +5805,7 @@
         <v>3557105</v>
       </c>
       <c r="B671" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5819,7 +5813,7 @@
         <v>3557154</v>
       </c>
       <c r="B672" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5827,7 +5821,7 @@
         <v>3557204</v>
       </c>
       <c r="B673" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5835,7 +5829,7 @@
         <v>3557303</v>
       </c>
       <c r="B674" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5843,7 +5837,7 @@
         <v>16</v>
       </c>
       <c r="B675" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5851,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="B676" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5859,7 +5853,7 @@
         <v>31</v>
       </c>
       <c r="B677" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
